--- a/SCRUM/Planilha de Sprints.xlsx
+++ b/SCRUM/Planilha de Sprints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE2CD3-7D71-4382-B5E3-CF19E68207B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFBC1A-E870-44BD-BD76-5ABB0F0495DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>Tarefa</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Planilha de testes</t>
-  </si>
-  <si>
-    <t>Criar relatórios para gestão</t>
   </si>
   <si>
     <t>Separar os requisitos (Backlog)</t>
@@ -186,9 +183,6 @@
     <t>Desenvolver os Diagramas de Classes</t>
   </si>
   <si>
-    <t>Desenvolver telas restantes do protótipo</t>
-  </si>
-  <si>
     <t>Desenvolver interação das telas do protótipo</t>
   </si>
   <si>
@@ -198,16 +192,31 @@
     <t>Diagrama de caso de uso - Produtos</t>
   </si>
   <si>
-    <t>Em desenvolvimento</t>
-  </si>
-  <si>
-    <t>Desenvolver o Modelo de Entidade Relacionamento</t>
-  </si>
-  <si>
     <t>Desenvolver a tela de protótipo do Cliente</t>
   </si>
   <si>
     <t>Vitor</t>
+  </si>
+  <si>
+    <t>Desenvolver o Diagrama de Entidade Relacionamento</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Desenvolver tela de Produto</t>
+  </si>
+  <si>
+    <t>Desenvolver tela de configuração</t>
+  </si>
+  <si>
+    <t>Finalização da tela do PoC (CRUD)</t>
+  </si>
+  <si>
+    <t>Criar o código de criação da Database</t>
+  </si>
+  <si>
+    <t>Diagrama de caso de uso - Geral</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1352,6 +1361,9 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="40" borderId="15" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,8 +1373,32 @@
     <xf numFmtId="0" fontId="38" fillId="40" borderId="17" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3272,6 +3308,108 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>678542</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>695008</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>262130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 1" descr="Weekly Chore Schedule" title="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509B528E-FE47-4591-A328-7553C49047E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043792" y="11556999"/>
+          <a:ext cx="30988591" cy="579631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Corbel" panose="020B0503020204020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SPRINT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> 7 (12/05 a 18/05)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3300,7 +3438,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="D44:D45" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" dataCellStyle="Hiperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="D51:D52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" dataCellStyle="Hiperlink">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="GitHub" dataDxfId="9" dataCellStyle="Hiperlink"/>
   </tableColumns>
@@ -3309,7 +3447,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela9" displayName="Tabela9" ref="D48:G54" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela9" displayName="Tabela9" ref="D55:G61" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Nome" dataDxfId="3" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Turma" dataDxfId="2" dataCellStyle="Normal 2"/>
@@ -3526,10 +3664,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:T54"/>
+  <dimension ref="D1:T61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3632,7 +3770,7 @@
     </row>
     <row r="5" spans="4:20" ht="21" customHeight="1">
       <c r="D5" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>5</v>
@@ -3657,7 +3795,7 @@
     </row>
     <row r="6" spans="4:20" ht="21" customHeight="1">
       <c r="D6" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>11</v>
@@ -3733,7 +3871,7 @@
     </row>
     <row r="11" spans="4:20" ht="21" customHeight="1">
       <c r="D11" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>10</v>
@@ -3868,7 +4006,7 @@
     </row>
     <row r="18" spans="4:18" ht="21" customHeight="1">
       <c r="D18" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>5</v>
@@ -3882,10 +4020,10 @@
     </row>
     <row r="19" spans="4:18" ht="21" customHeight="1">
       <c r="D19" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>2</v>
@@ -3896,10 +4034,10 @@
     </row>
     <row r="20" spans="4:18" ht="21" customHeight="1">
       <c r="D20" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>2</v>
@@ -3910,7 +4048,7 @@
     </row>
     <row r="21" spans="4:18" ht="21" customHeight="1">
       <c r="D21" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>8</v>
@@ -3924,7 +4062,7 @@
     </row>
     <row r="22" spans="4:18" ht="21" customHeight="1">
       <c r="D22" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>11</v>
@@ -3977,13 +4115,13 @@
     </row>
     <row r="27" spans="4:18" ht="21" customHeight="1">
       <c r="D27" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>14</v>
@@ -3991,13 +4129,13 @@
     </row>
     <row r="28" spans="4:18" ht="21" customHeight="1">
       <c r="D28" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>6</v>
@@ -4015,13 +4153,13 @@
     </row>
     <row r="29" spans="4:18" ht="21" customHeight="1">
       <c r="D29" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>6</v>
@@ -4071,7 +4209,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>14</v>
@@ -4079,13 +4217,13 @@
     </row>
     <row r="35" spans="4:18" ht="21" customHeight="1">
       <c r="D35" s="29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>6</v>
@@ -4128,186 +4266,272 @@
       </c>
     </row>
     <row r="40" spans="4:18" ht="21" customHeight="1">
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" ht="21" customHeight="1">
+      <c r="D41" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" ht="21" customHeight="1">
+      <c r="D42" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" ht="21" customHeight="1">
+      <c r="D43" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" ht="21" customHeight="1">
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="4:18" ht="21" customHeight="1">
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="63"/>
+    </row>
+    <row r="46" spans="4:18" ht="21" customHeight="1">
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
+    </row>
+    <row r="47" spans="4:18" ht="21" customHeight="1">
+      <c r="D47" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" ht="21" customHeight="1">
+      <c r="D48" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="4:18" ht="21" customHeight="1">
-      <c r="D41" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="20" t="s">
+      <c r="G48" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" ht="21" customHeight="1">
+      <c r="D49" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F49" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="4:18" ht="21" customHeight="1">
-      <c r="D42" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="22" t="s">
+      <c r="G49" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="4:18" ht="21" customHeight="1">
-      <c r="D44" s="48" t="s">
+    <row r="50" spans="4:18" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="D50" s="68"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="R50" s="15"/>
+    </row>
+    <row r="51" spans="4:18" ht="21" customHeight="1">
+      <c r="D51" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="4:18" ht="21" customHeight="1">
+      <c r="D52" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="4:18" ht="21" customHeight="1">
-      <c r="D45" s="49" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="54" spans="4:18" ht="21" customHeight="1">
+      <c r="D54" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="59"/>
+    </row>
+    <row r="55" spans="4:18" ht="21" customHeight="1">
+      <c r="D55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="47" spans="4:18" ht="21" customHeight="1">
-      <c r="D47" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-    </row>
-    <row r="48" spans="4:18" ht="21" customHeight="1">
-      <c r="D48" s="24" t="s">
+      <c r="E55" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="F55" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="G55" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18" ht="21" customHeight="1">
+      <c r="D56" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="21" customHeight="1">
-      <c r="D49" s="38" t="s">
+      <c r="E56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="F56" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="G56" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="40" t="s">
+    </row>
+    <row r="57" spans="4:18" ht="21" customHeight="1">
+      <c r="D57" s="38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="4:7" ht="21" customHeight="1">
-      <c r="D50" s="38" t="s">
+      <c r="E57" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="F57" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="G57" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="41" t="s">
+    </row>
+    <row r="58" spans="4:18" ht="21" customHeight="1">
+      <c r="D58" s="38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="4:7" ht="21" customHeight="1">
-      <c r="D51" s="38" t="s">
+      <c r="E58" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="F58" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="G58" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="41" t="s">
+    </row>
+    <row r="59" spans="4:18" ht="21" customHeight="1">
+      <c r="D59" s="38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="4:7" ht="21" customHeight="1">
-      <c r="D52" s="38" t="s">
+      <c r="E59" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="41" t="s">
+    </row>
+    <row r="60" spans="4:18" ht="21" customHeight="1">
+      <c r="D60" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="4:7" ht="21" customHeight="1">
-      <c r="D53" s="38" t="s">
+      <c r="E60" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="39" t="s">
+    </row>
+    <row r="61" spans="4:18" ht="21" customHeight="1">
+      <c r="D61" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="21" customHeight="1">
-      <c r="D54" s="42" t="s">
+      <c r="G61" s="44" t="s">
         <v>40</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations xWindow="283" yWindow="632" count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 1." sqref="E4 E10 E17 E26 E33 E39" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 2." sqref="G4 G10 G17 G26 G33 G39" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Clique duas vezes nas células sob esta coluna para marcar as tarefas como concluídas." sqref="F10 F4 F17 F26 F33 F39" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 1." sqref="E4 E10 E17 E26 E33 E39 E47" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 2." sqref="G4 G10 G17 G26 G33 G39 G47" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Clique duas vezes nas células sob esta coluna para marcar as tarefas como concluídas." sqref="F10 F4 F17 F26 F33 F39 F47" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira cada tarefa nesta coluna." sqref="D4 D10" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$I$5:$I$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D52" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4323,7 +4547,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{176E1538-9EFD-4E7F-8E7F-B77DEBB3E249}">
+          <x14:cfRule type="iconSet" priority="54" id="{176E1538-9EFD-4E7F-8E7F-B77DEBB3E249}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4342,7 +4566,7 @@
           <xm:sqref>F11:F12 H14:H17 J14:J17 L14:L17 N14:N17 P14:P17 R14:R17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{5387C428-20DF-4FFE-AF1B-11F61B181753}">
+          <x14:cfRule type="iconSet" priority="53" id="{5387C428-20DF-4FFE-AF1B-11F61B181753}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4361,7 +4585,7 @@
           <xm:sqref>F18:F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{EE5E23B3-A11B-47B4-99A0-9EFEE1F5305B}">
+          <x14:cfRule type="iconSet" priority="56" id="{EE5E23B3-A11B-47B4-99A0-9EFEE1F5305B}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4380,7 +4604,7 @@
           <xm:sqref>F20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{25C42D9B-234A-4861-9413-3E46E9B672AD}">
+          <x14:cfRule type="iconSet" priority="10" id="{25C42D9B-234A-4861-9413-3E46E9B672AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4399,7 +4623,26 @@
           <xm:sqref>F21:F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{F57CEF24-7066-4C2C-AFEE-CA63D1AE06C5}">
+          <x14:cfRule type="iconSet" priority="64" id="{6014A88C-DABB-4BC0-81D4-1C5CBAD85A84}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H8 J5 L5 N5:N8 P5:P8 R5:R8 F5:F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{63BE4E83-6FAD-4D9F-BF7A-ABC4D202AEB7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4418,7 +4661,7 @@
           <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{C9F2EBDE-B5B8-4675-A55A-821E6BB85053}">
+          <x14:cfRule type="iconSet" priority="6" id="{59849361-CC3E-4AAE-B850-C9DF9119EF09}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4434,10 +4677,29 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F28:F29</xm:sqref>
+          <xm:sqref>F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{C99C482E-AD63-4DC8-9816-C43254E14141}">
+          <x14:cfRule type="iconSet" priority="5" id="{C9E132D4-8BFA-48F4-9A94-BCE3578A8141}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{3AB04D59-B0FC-4518-9704-88CCDA457496}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4456,7 +4718,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{F9FAE60C-EBC3-4D8D-B06F-97C2F9EF82E9}">
+          <x14:cfRule type="iconSet" priority="3" id="{CA139C56-C730-4E24-BED7-E52AC551B373}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4475,7 +4737,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{A4516B3C-180E-4E0C-9B74-FEBDA679F4DD}">
+          <x14:cfRule type="iconSet" priority="2" id="{CC4FEA51-2812-4C01-AAD2-45BCFD2F1973}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4491,10 +4753,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F40:F42</xm:sqref>
+          <xm:sqref>F48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{6014A88C-DABB-4BC0-81D4-1C5CBAD85A84}">
+          <x14:cfRule type="iconSet" priority="1" id="{181E893A-A295-4905-B94F-268E89F4EDC8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4510,7 +4772,26 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H8 J5 L5 N5:N8 P5:P8 R5:R8 F5:F6</xm:sqref>
+          <xm:sqref>F49:F50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="65" id="{A4516B3C-180E-4E0C-9B74-FEBDA679F4DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F40:F46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4519,6 +4800,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9873e3eb-efbd-427c-b89e-18c992b24cb9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9240cd1e-e99b-4c38-a677-bfc3f12694be">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ReferenceId xmlns="9240cd1e-e99b-4c38-a677-bfc3f12694be" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FD8FCE98A4A2A24ABDB27E7047C09FC5" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="317e2298551f07e41f4e89cba2626dec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9240cd1e-e99b-4c38-a677-bfc3f12694be" xmlns:ns3="9873e3eb-efbd-427c-b89e-18c992b24cb9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78ef13e1b7921191667c88cc6d3ea5c3" ns2:_="" ns3:_="">
     <xsd:import namespace="9240cd1e-e99b-4c38-a677-bfc3f12694be"/>
@@ -4719,18 +5012,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9873e3eb-efbd-427c-b89e-18c992b24cb9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9240cd1e-e99b-4c38-a677-bfc3f12694be">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ReferenceId xmlns="9240cd1e-e99b-4c38-a677-bfc3f12694be" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4741,25 +5022,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E53ABF40-3749-4196-8749-49C14B284732}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9240cd1e-e99b-4c38-a677-bfc3f12694be"/>
-    <ds:schemaRef ds:uri="9873e3eb-efbd-427c-b89e-18c992b24cb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61D8B24C-3B85-4379-80DC-A0BB54E539A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4779,6 +5041,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E53ABF40-3749-4196-8749-49C14B284732}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9240cd1e-e99b-4c38-a677-bfc3f12694be"/>
+    <ds:schemaRef ds:uri="9873e3eb-efbd-427c-b89e-18c992b24cb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60A8B6F-A245-4A02-AD66-F6A27855DC90}">
   <ds:schemaRefs>

--- a/SCRUM/Planilha de Sprints.xlsx
+++ b/SCRUM/Planilha de Sprints.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFBC1A-E870-44BD-BD76-5ABB0F0495DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197B633-8DCE-4D6A-B7AF-9DDAC0FBF67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda semanal de tarefas" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="First_Day">'Agenda semanal de tarefas'!#REF!</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="72">
   <si>
     <t>Tarefa</t>
   </si>
@@ -52,16 +54,10 @@
     <t>Renan</t>
   </si>
   <si>
-    <t>Inicio da primeira tela do protótipo</t>
-  </si>
-  <si>
     <t>João</t>
   </si>
   <si>
     <t>Mateus</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
   </si>
   <si>
     <t>Início da tela do PoC (CRUD)</t>
@@ -216,7 +212,46 @@
     <t>Criar o código de criação da Database</t>
   </si>
   <si>
-    <t>Diagrama de caso de uso - Geral</t>
+    <t>Tempo gasto</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>Tempo planejado</t>
+  </si>
+  <si>
+    <t>Finalizar o restante das telas do protótipo</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Planilha de Teste AB</t>
   </si>
 </sst>
 </file>
@@ -224,13 +259,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;Concluído&quot;;&quot; &quot;;&quot; &quot;"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;Concluído&quot;;&quot; &quot;;&quot; &quot;"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +543,23 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Bahnschrift"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Bahnschrift"/>
+    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -750,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1051,19 +1103,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,7 +1312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1213,17 +1329,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1232,9 +1345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1247,9 +1357,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1258,13 +1365,13 @@
     <xf numFmtId="0" fontId="25" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="18" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,7 +1410,7 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1347,16 +1454,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,6 +1465,136 @@
     <xf numFmtId="0" fontId="29" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="40" borderId="15" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1372,33 +1603,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="17" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1453,7 +1657,7 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="58">
     <dxf>
       <font>
         <b val="0"/>
@@ -1758,6 +1962,159 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1791,7 +2148,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
         </left>
@@ -1802,12 +2159,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1882,7 +2233,7 @@
         <name val="Bahnschrift"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="&quot;Concluído&quot;;&quot; &quot;;&quot; &quot;"/>
+      <numFmt numFmtId="166" formatCode="&quot;Concluído&quot;;&quot; &quot;;&quot; &quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2073,7 +2424,9 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -2083,9 +2436,7 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color theme="0"/>
         </horizontal>
@@ -2240,6 +2591,177 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Bahnschrift"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2328,7 +2850,7 @@
         <name val="Bahnschrift"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="&quot;Concluído&quot;;&quot; &quot;;&quot; &quot;"/>
+      <numFmt numFmtId="166" formatCode="&quot;Concluído&quot;;&quot; &quot;;&quot; &quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2519,7 +3041,9 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -2529,9 +3053,7 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color theme="0"/>
         </horizontal>
@@ -2707,15 +3229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>254027</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>731307</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>37753</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3905249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2730,8 +3252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2041071" y="254027"/>
-          <a:ext cx="30639807" cy="600155"/>
+          <a:off x="2103438" y="31750"/>
+          <a:ext cx="3873499" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2801,15 +3323,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>740832</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>35373</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3952875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2824,8 +3346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2085209"/>
-          <a:ext cx="19147895" cy="569539"/>
+          <a:off x="2103439" y="1595436"/>
+          <a:ext cx="3921124" cy="551311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2904,14 +3426,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>225448</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>257198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>738452</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9174</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3690937</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2926,8 +3448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23813" y="3892573"/>
-          <a:ext cx="19121702" cy="569539"/>
+          <a:off x="2095501" y="3138511"/>
+          <a:ext cx="3667124" cy="552426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3005,15 +3527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>229620</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>261370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>699091</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3142</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3833812</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3028,8 +3550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2041071" y="6488906"/>
-          <a:ext cx="30988591" cy="862093"/>
+          <a:off x="2087563" y="5238183"/>
+          <a:ext cx="3817937" cy="834004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3107,15 +3629,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>205128</xdr:rowOff>
+      <xdr:colOff>34471</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>701812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>250792</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3762374</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3130,8 +3652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2043792" y="9185842"/>
-          <a:ext cx="30988591" cy="862093"/>
+          <a:off x="2106159" y="8650628"/>
+          <a:ext cx="3727903" cy="826747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,16 +3730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>655864</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4989</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>674598</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>21738</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3662362</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3232,8 +3754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2021114" y="9810750"/>
-          <a:ext cx="30990859" cy="736113"/>
+          <a:off x="2062389" y="7099300"/>
+          <a:ext cx="3657373" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3310,16 +3832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>678542</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>222249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>695008</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>262130</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3976687</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3334,8 +3856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2043792" y="11556999"/>
-          <a:ext cx="30988591" cy="579631"/>
+          <a:off x="2115230" y="10485436"/>
+          <a:ext cx="3933145" cy="563563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3414,31 +3936,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_Schedule" displayName="Tabela_Cronograma" ref="D5:G6" headerRowCount="0" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="42" headerRowBorderDxfId="45" tableBorderDxfId="43">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" totalsRowLabel="Total" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quem" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concluído" headerRowDxfId="35" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quem " headerRowDxfId="33" dataDxfId="32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_Schedule" displayName="Tabela_Cronograma" ref="D4:I5" headerRowCount="0" headerRowDxfId="57" dataDxfId="55" totalsRowDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="54">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" totalsRowLabel="Total" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quem" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concluído" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quem " headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{6634016F-10CD-4714-BD04-19D3E06ED5D8}" name="Coluna1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{5171C113-F1DC-428D-AFBA-1CF1B06C6735}" name="Coluna2" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela_Cronograma6" displayName="Tabela_Cronograma6" ref="D11:G12" headerRowCount="0" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="27" headerRowBorderDxfId="30" tableBorderDxfId="28">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tarefa" totalsRowLabel="Total" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quem" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Concluído" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Quem " headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela_Cronograma6" displayName="Tabela_Cronograma6" ref="D10:I11" headerRowCount="0" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tarefa" totalsRowLabel="Total" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quem" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Concluído" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Quem " headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{F6FEE069-7759-4224-BE5E-F5AABF0DCA08}" name="Coluna1" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{222638F1-AE9F-49C3-83AA-0515D8ABDE44}" name="Coluna2" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="D51:D52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" dataCellStyle="Hiperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="D49:D50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" dataCellStyle="Hiperlink">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="GitHub" dataDxfId="9" dataCellStyle="Hiperlink"/>
   </tableColumns>
@@ -3447,7 +3973,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela9" displayName="Tabela9" ref="D55:G61" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela9" displayName="Tabela9" ref="D53:G59" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Nome" dataDxfId="3" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Turma" dataDxfId="2" dataCellStyle="Normal 2"/>
@@ -3664,10 +4190,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:T61"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3677,12 +4203,12 @@
     <col min="5" max="5" width="37.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="53.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="43.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="39.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.125" style="4" customWidth="1"/>
     <col min="15" max="15" width="10.125" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.125" style="4" customWidth="1"/>
@@ -3692,232 +4218,296 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:20" ht="21" customHeight="1">
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="4:20" ht="21" customHeight="1">
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="4:20" ht="21" customHeight="1">
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="4:20" ht="21" customHeight="1">
-      <c r="D4" s="46" t="s">
+    <row r="1" spans="1:20" ht="21" customHeight="1">
+      <c r="A1" s="61"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:20" ht="21" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="4:20" ht="21" customHeight="1">
-      <c r="D5" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="H3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:20" ht="21" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="5"/>
+      <c r="H4" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="21" customHeight="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="4:20" ht="21" customHeight="1">
-      <c r="D6" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:20" ht="21" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="73"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="4:20" ht="21" customHeight="1">
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
+    <row r="7" spans="1:20" ht="21" customHeight="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="74"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="4:20" ht="21" customHeight="1">
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="4:20" ht="21" customHeight="1">
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="4:20" ht="21" customHeight="1">
-      <c r="D10" s="46" t="s">
+    <row r="8" spans="1:20" ht="21" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="75"/>
+    </row>
+    <row r="9" spans="1:20" ht="21" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="4:20" ht="21" customHeight="1">
-      <c r="D11" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="H9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="21" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="4:20" ht="21" customHeight="1">
-      <c r="D12" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="H10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" ht="21" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-    </row>
-    <row r="13" spans="4:20" ht="21" customHeight="1">
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G11" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" ht="21" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="84"/>
+      <c r="H12"/>
+      <c r="I12" s="76"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" ht="21" customHeight="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="74"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -3928,13 +4518,16 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="4:20" ht="21" customHeight="1">
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
+    <row r="14" spans="1:20" ht="21" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
@@ -3945,13 +4538,28 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="4:20" ht="21" customHeight="1">
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
+    <row r="15" spans="1:20" ht="21" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>
@@ -3962,13 +4570,28 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="4:20" ht="21" customHeight="1">
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="5"/>
+    <row r="16" spans="1:20" ht="21" customHeight="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -3979,559 +4602,767 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="4:18" ht="21" customHeight="1">
-      <c r="D17" s="46" t="s">
+    <row r="17" spans="1:18" ht="21" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="21" customHeight="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="21" customHeight="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="21" customHeight="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="77"/>
+    </row>
+    <row r="22" spans="1:18" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" ht="21" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="75"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" ht="21" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F24" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="4:18" ht="21" customHeight="1">
-      <c r="D18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="H24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="21" customHeight="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="21" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="21" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G27" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="4:18" ht="21" customHeight="1">
-      <c r="D19" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="H27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="62"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="21" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" spans="1:18" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" ht="21" customHeight="1">
+      <c r="A30" s="61"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31" spans="1:18" ht="21" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="21" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="21" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="21" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="77"/>
+    </row>
+    <row r="35" spans="1:18" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:18" ht="21" customHeight="1">
+      <c r="A36" s="61"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="75"/>
+    </row>
+    <row r="37" spans="1:18" ht="21" customHeight="1">
+      <c r="A37" s="61"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="21" customHeight="1">
+      <c r="A38" s="61"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="21" customHeight="1">
+      <c r="A39" s="61"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="21" customHeight="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="78"/>
+    </row>
+    <row r="41" spans="1:18" ht="21" customHeight="1">
+      <c r="A41" s="61"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="75"/>
+    </row>
+    <row r="42" spans="1:18" ht="21" customHeight="1">
+      <c r="A42" s="61"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="1:18" ht="21" customHeight="1">
+      <c r="A43" s="61"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="21" customHeight="1">
+      <c r="A44" s="61"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="21" customHeight="1">
+      <c r="A45" s="61"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="21" customHeight="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="21" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="22" t="s">
+      <c r="E47" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="4:18" ht="21" customHeight="1">
-      <c r="D20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" ht="21" customHeight="1">
-      <c r="D21" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" ht="21" customHeight="1">
-      <c r="D22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="4:18" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="4:18" ht="21" customHeight="1">
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="4:18" ht="21" customHeight="1">
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="4:18" ht="21" customHeight="1">
-      <c r="D26" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="4:18" ht="21" customHeight="1">
-      <c r="D27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" ht="21" customHeight="1">
-      <c r="D28" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="4:18" ht="21" customHeight="1">
-      <c r="D29" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="4:18" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="D30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="H30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="4:18" ht="21" customHeight="1">
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="4:18" ht="21" customHeight="1">
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="4:18" ht="21" customHeight="1">
-      <c r="D33" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18" ht="21" customHeight="1">
-      <c r="D34" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="4:18" ht="21" customHeight="1">
-      <c r="D35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="4:18" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="D36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="H36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="R36" s="15"/>
-    </row>
-    <row r="37" spans="4:18" ht="21" customHeight="1">
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="4:18" ht="21" customHeight="1">
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="4:18" ht="21" customHeight="1">
-      <c r="D39" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18" ht="21" customHeight="1">
-      <c r="D40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="4:18" ht="21" customHeight="1">
-      <c r="D41" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="4:18" ht="21" customHeight="1">
-      <c r="D42" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="4:18" ht="21" customHeight="1">
-      <c r="D43" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="4:18" ht="21" customHeight="1">
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-    </row>
-    <row r="45" spans="4:18" ht="21" customHeight="1">
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
-    </row>
-    <row r="46" spans="4:18" ht="21" customHeight="1">
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="4:18" ht="21" customHeight="1">
-      <c r="D47" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="4:18" ht="21" customHeight="1">
-      <c r="D48" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="4:18" ht="21" customHeight="1">
-      <c r="D49" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="4:18" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="D50" s="68"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="R50" s="15"/>
-    </row>
-    <row r="51" spans="4:18" ht="21" customHeight="1">
-      <c r="D51" s="48" t="s">
+      <c r="H47" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="21" customHeight="1">
+      <c r="A48" s="61"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="80"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="1:18" ht="21" customHeight="1">
+      <c r="A50" s="61"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="21" customHeight="1">
+      <c r="A51" s="61"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+    </row>
+    <row r="52" spans="1:18" ht="21" customHeight="1">
+      <c r="D52" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="98"/>
+    </row>
+    <row r="53" spans="1:18" ht="21" customHeight="1">
+      <c r="D53" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="4:18" ht="21" customHeight="1">
-      <c r="D52" s="49" t="s">
+      <c r="E53" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="54" spans="4:18" ht="21" customHeight="1">
-      <c r="D54" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
-    </row>
-    <row r="55" spans="4:18" ht="21" customHeight="1">
-      <c r="D55" s="24" t="s">
+      <c r="F53" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="G53" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="21" customHeight="1">
+      <c r="D54" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="E54" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="4:18" ht="21" customHeight="1">
-      <c r="D56" s="38" t="s">
+      <c r="F54" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="G54" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="39" t="s">
+    </row>
+    <row r="55" spans="1:18" ht="21" customHeight="1">
+      <c r="D55" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="E55" s="36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="4:18" ht="21" customHeight="1">
-      <c r="D57" s="38" t="s">
+      <c r="F55" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="G55" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="39" t="s">
+    </row>
+    <row r="56" spans="1:18" ht="21" customHeight="1">
+      <c r="D56" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="E56" s="36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="4:18" ht="21" customHeight="1">
-      <c r="D58" s="38" t="s">
+      <c r="F56" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="G56" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="39" t="s">
+    </row>
+    <row r="57" spans="1:18" ht="21" customHeight="1">
+      <c r="D57" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="E57" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="4:18" ht="21" customHeight="1">
-      <c r="D59" s="38" t="s">
+    <row r="58" spans="1:18" ht="21" customHeight="1">
+      <c r="D58" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>33</v>
+      <c r="E58" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="21" customHeight="1">
+      <c r="D59" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="4:18" ht="21" customHeight="1">
-      <c r="D60" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="41" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="4:18" ht="21" customHeight="1">
-      <c r="D61" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="44" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D52:G52"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations xWindow="283" yWindow="632" count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 1." sqref="E4 E10 E17 E26 E33 E39 E47" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 2." sqref="G4 G10 G17 G26 G33 G39 G47" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Clique duas vezes nas células sob esta coluna para marcar as tarefas como concluídas." sqref="F10 F4 F17 F26 F33 F39 F47" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira cada tarefa nesta coluna." sqref="D4 D10" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>$I$5:$I$7</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 1." sqref="E3 E9 E15 E24 E31 E37 E43" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 2." sqref="G3:I3 G9:I9 G15:I15 G24:I24 G43:I43 G31:I31 G37:I37" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Clique duas vezes nas células sob esta coluna para marcar as tarefas como concluídas." sqref="F9 F3 F15 F24 F31 F37 F43" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira cada tarefa nesta coluna." sqref="D3 D9" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>$I$4:$I$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D52" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G54" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,7 +5378,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{176E1538-9EFD-4E7F-8E7F-B77DEBB3E249}">
+          <x14:cfRule type="iconSet" priority="54" id="{5387C428-20DF-4FFE-AF1B-11F61B181753}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4563,10 +5394,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F11:F12 H14:H17 J14:J17 L14:L17 N14:N17 P14:P17 R14:R17</xm:sqref>
+          <xm:sqref>F16:F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{5387C428-20DF-4FFE-AF1B-11F61B181753}">
+          <x14:cfRule type="iconSet" priority="57" id="{EE5E23B3-A11B-47B4-99A0-9EFEE1F5305B}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4582,10 +5413,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F18:F19</xm:sqref>
+          <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{EE5E23B3-A11B-47B4-99A0-9EFEE1F5305B}">
+          <x14:cfRule type="iconSet" priority="11" id="{25C42D9B-234A-4861-9413-3E46E9B672AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4601,10 +5432,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F20</xm:sqref>
+          <xm:sqref>F19:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{25C42D9B-234A-4861-9413-3E46E9B672AD}">
+          <x14:cfRule type="iconSet" priority="65" id="{6014A88C-DABB-4BC0-81D4-1C5CBAD85A84}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4620,10 +5451,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F21:F23</xm:sqref>
+          <xm:sqref>H6:H7 J4 L4 N4:N7 P4:P7 R4:R7 F4:F5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="64" id="{6014A88C-DABB-4BC0-81D4-1C5CBAD85A84}">
+          <x14:cfRule type="iconSet" priority="8" id="{63BE4E83-6FAD-4D9F-BF7A-ABC4D202AEB7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4639,10 +5470,29 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:H8 J5 L5 N5:N8 P5:P8 R5:R8 F5:F6</xm:sqref>
+          <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{63BE4E83-6FAD-4D9F-BF7A-ABC4D202AEB7}">
+          <x14:cfRule type="iconSet" priority="7" id="{59849361-CC3E-4AAE-B850-C9DF9119EF09}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{C9E132D4-8BFA-48F4-9A94-BCE3578A8141}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4661,7 +5511,7 @@
           <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{59849361-CC3E-4AAE-B850-C9DF9119EF09}">
+          <x14:cfRule type="iconSet" priority="5" id="{3AB04D59-B0FC-4518-9704-88CCDA457496}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4677,10 +5527,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
+          <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{C9E132D4-8BFA-48F4-9A94-BCE3578A8141}">
+          <x14:cfRule type="iconSet" priority="4" id="{CA139C56-C730-4E24-BED7-E52AC551B373}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4696,10 +5546,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F29</xm:sqref>
+          <xm:sqref>F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{3AB04D59-B0FC-4518-9704-88CCDA457496}">
+          <x14:cfRule type="iconSet" priority="3" id="{CC4FEA51-2812-4C01-AAD2-45BCFD2F1973}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4715,10 +5565,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F34</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{CA139C56-C730-4E24-BED7-E52AC551B373}">
+          <x14:cfRule type="iconSet" priority="2" id="{181E893A-A295-4905-B94F-268E89F4EDC8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4734,10 +5584,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F35</xm:sqref>
+          <xm:sqref>F48 F45:F46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{CC4FEA51-2812-4C01-AAD2-45BCFD2F1973}">
+          <x14:cfRule type="iconSet" priority="67" id="{176E1538-9EFD-4E7F-8E7F-B77DEBB3E249}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4753,10 +5603,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F48</xm:sqref>
+          <xm:sqref>H13:H14 F10:F11 J14:J16 L14:L16 N14:N16 P14:P16 R14:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{181E893A-A295-4905-B94F-268E89F4EDC8}">
+          <x14:cfRule type="iconSet" priority="71" id="{A4516B3C-180E-4E0C-9B74-FEBDA679F4DD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4772,10 +5622,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F49:F50</xm:sqref>
+          <xm:sqref>F38:F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{A4516B3C-180E-4E0C-9B74-FEBDA679F4DD}">
+          <x14:cfRule type="iconSet" priority="73" id="{7BC2DD4B-4329-481F-881B-3037DB97CC3A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4791,7 +5641,322 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F40:F46</xm:sqref>
+          <xm:sqref>F47</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D5CB73-A2A5-40AF-A7B9-E16F1FFA61AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A4BFDF-F5F1-4D4A-BD53-8170BD4F73A2}">
+  <dimension ref="P4:Q40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="16" max="16" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="16:17" ht="22.5">
+      <c r="P4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="16:17" ht="22.5">
+      <c r="P5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="16:17" ht="22.5">
+      <c r="P6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="16:17" ht="19.5">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="73"/>
+    </row>
+    <row r="8" spans="16:17" ht="19.5">
+      <c r="P8" s="68"/>
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="16:17">
+      <c r="P9" s="67"/>
+      <c r="Q9" s="75"/>
+    </row>
+    <row r="10" spans="16:17" ht="22.5">
+      <c r="P10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="16:17" ht="22.5">
+      <c r="P11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="16:17" ht="22.5">
+      <c r="P12" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="16:17">
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" spans="16:17" ht="19.5">
+      <c r="P14" s="68"/>
+      <c r="Q14" s="74"/>
+    </row>
+    <row r="15" spans="16:17" ht="19.5">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="74"/>
+    </row>
+    <row r="16" spans="16:17" ht="22.5">
+      <c r="P16" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" ht="22.5">
+      <c r="P17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" ht="22.5">
+      <c r="P18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17" ht="22.5">
+      <c r="P19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="16:17" ht="22.5">
+      <c r="P20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17" ht="22.5">
+      <c r="P21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17">
+      <c r="P22" s="50"/>
+      <c r="Q22" s="77"/>
+    </row>
+    <row r="23" spans="16:17">
+      <c r="P23" s="64"/>
+      <c r="Q23" s="75"/>
+    </row>
+    <row r="24" spans="16:17">
+      <c r="P24" s="65"/>
+      <c r="Q24" s="75"/>
+    </row>
+    <row r="25" spans="16:17" ht="22.5">
+      <c r="P25" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="16:17" ht="22.5">
+      <c r="P26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="16:17" ht="22.5">
+      <c r="P27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="16:17" ht="22.5">
+      <c r="P28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="16:17">
+      <c r="P29" s="50"/>
+      <c r="Q29" s="77"/>
+    </row>
+    <row r="30" spans="16:17">
+      <c r="P30" s="64"/>
+      <c r="Q30" s="75"/>
+    </row>
+    <row r="31" spans="16:17">
+      <c r="P31" s="65"/>
+      <c r="Q31" s="75"/>
+    </row>
+    <row r="32" spans="16:17" ht="22.5">
+      <c r="P32" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" ht="22.5">
+      <c r="P33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" ht="22.5">
+      <c r="P34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17">
+      <c r="P35" s="50"/>
+      <c r="Q35" s="77"/>
+    </row>
+    <row r="36" spans="16:17">
+      <c r="P36" s="64"/>
+      <c r="Q36" s="75"/>
+    </row>
+    <row r="37" spans="16:17">
+      <c r="P37" s="65"/>
+      <c r="Q37" s="75"/>
+    </row>
+    <row r="38" spans="16:17" ht="22.5">
+      <c r="P38" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" ht="22.5">
+      <c r="P39" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="16:17" ht="22.5">
+      <c r="P40" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nesta coluna, insira o nome da pessoa designada a cada tarefa para o Dia 2." sqref="P4:Q4 P10:Q10 P16:Q16 P25:Q25 P32:Q32 P38:Q38" xr:uid="{B80E0652-8BE8-461C-A70A-0A6EBF0B1572}"/>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{F8079DA2-1590-4ADA-9E4F-C8B1BE3F7CEF}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P7:P8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{1F2B24C4-EA46-4447-8FEE-80F935F2A86C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P14:P15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4812,6 +5977,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FD8FCE98A4A2A24ABDB27E7047C09FC5" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="317e2298551f07e41f4e89cba2626dec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9240cd1e-e99b-4c38-a677-bfc3f12694be" xmlns:ns3="9873e3eb-efbd-427c-b89e-18c992b24cb9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78ef13e1b7921191667c88cc6d3ea5c3" ns2:_="" ns3:_="">
     <xsd:import namespace="9240cd1e-e99b-4c38-a677-bfc3f12694be"/>
@@ -5012,15 +6186,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61D8B24C-3B85-4379-80DC-A0BB54E539A4}">
   <ds:schemaRefs>
@@ -5042,6 +6207,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60A8B6F-A245-4A02-AD66-F6A27855DC90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E53ABF40-3749-4196-8749-49C14B284732}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5058,12 +6231,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60A8B6F-A245-4A02-AD66-F6A27855DC90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>